--- a/data_processing/2024/data/transmission_measurements_boron.xlsx
+++ b/data_processing/2024/data/transmission_measurements_boron.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARPA-E\Documents\GitHub\relozwall\data_processing\2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3D97F1-E94D-44F6-803E-C2F025D6A091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB94D996-8A40-4B7B-96C2-543D513961DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="240" windowWidth="22995" windowHeight="13110" xr2:uid="{ED75ABB6-2E73-4136-9507-EBE78931EF6C}"/>
+    <workbookView xWindow="4335" yWindow="240" windowWidth="22995" windowHeight="13110" activeTab="1" xr2:uid="{ED75ABB6-2E73-4136-9507-EBE78931EF6C}"/>
   </bookViews>
   <sheets>
     <sheet name="measurements" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>Clean slide signal (V)</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>AB2R006</t>
+  </si>
+  <si>
+    <t>QUARTZ_MULTIPLE</t>
   </si>
 </sst>
 </file>
@@ -255,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -592,11 +595,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E2D066-04B8-431D-9940-C182B0E8F5EB}">
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T14" sqref="T14"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,11 +766,11 @@
       </c>
       <c r="Q2">
         <f>ROUND(O2*10000000/'absorption coefficient'!$B$2,2)</f>
-        <v>0.49</v>
+        <v>1.19</v>
       </c>
       <c r="R2">
         <f>ROUND(ABS(Q2)*SQRT(SUMSQ(P2/O2,'absorption coefficient'!$B$3/'absorption coefficient'!$B$2)),3)</f>
-        <v>0.14699999999999999</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="S2">
         <v>10</v>
@@ -780,11 +783,11 @@
       </c>
       <c r="V2" s="5">
         <f t="shared" ref="V2:V3" si="8">ROUND(Q2/T2,2)</f>
-        <v>0.49</v>
+        <v>1.19</v>
       </c>
       <c r="W2" s="5">
         <f t="shared" ref="W2:W3" si="9">ROUND(ABS(R2/T2),2)</f>
-        <v>0.15</v>
+        <v>0.6</v>
       </c>
       <c r="X2">
         <v>4.4999999999999997E-3</v>
@@ -861,11 +864,11 @@
       </c>
       <c r="Q3">
         <f>ROUND(O3*10000000/'absorption coefficient'!$B$2,2)</f>
-        <v>1.07</v>
+        <v>2.62</v>
       </c>
       <c r="R3">
         <f>ROUND(ABS(Q3)*SQRT(SUMSQ(P3/O3,'absorption coefficient'!$B$3/'absorption coefficient'!$B$2)),3)</f>
-        <v>0.32100000000000001</v>
+        <v>1.31</v>
       </c>
       <c r="S3">
         <v>20</v>
@@ -878,11 +881,11 @@
       </c>
       <c r="V3" s="5">
         <f t="shared" si="8"/>
-        <v>1.07</v>
+        <v>2.62</v>
       </c>
       <c r="W3" s="5">
         <f t="shared" si="9"/>
-        <v>0.32</v>
+        <v>1.31</v>
       </c>
       <c r="X3">
         <v>1.5E-3</v>
@@ -959,11 +962,11 @@
       </c>
       <c r="Q4">
         <f>ROUND(O4*10000000/'absorption coefficient'!$B$2,2)</f>
-        <v>1.24</v>
+        <v>3.05</v>
       </c>
       <c r="R4">
         <f>ROUND(ABS(Q4)*SQRT(SUMSQ(P4/O4,'absorption coefficient'!$B$3/'absorption coefficient'!$B$2)),3)</f>
-        <v>0.371</v>
+        <v>1.5249999999999999</v>
       </c>
       <c r="S4">
         <v>40</v>
@@ -976,11 +979,11 @@
       </c>
       <c r="V4" s="5">
         <f>ROUND(Q4/T4,2)</f>
-        <v>1.24</v>
+        <v>3.05</v>
       </c>
       <c r="W4" s="5">
         <f>ROUND(ABS(R4/T4),2)</f>
-        <v>0.37</v>
+        <v>1.53</v>
       </c>
       <c r="X4" s="6">
         <v>3.0099999999999998E-2</v>
@@ -1057,11 +1060,11 @@
       </c>
       <c r="Q5">
         <f>ROUND(O5*10000000/'absorption coefficient'!$B$2,2)</f>
-        <v>-1.8</v>
+        <v>-4.42</v>
       </c>
       <c r="R5">
         <f>ROUND(ABS(Q5)*SQRT(SUMSQ(P5/O5,'absorption coefficient'!$B$3/'absorption coefficient'!$B$2)),3)</f>
-        <v>0.53900000000000003</v>
+        <v>2.21</v>
       </c>
       <c r="S5">
         <v>40</v>
@@ -1074,11 +1077,11 @@
       </c>
       <c r="V5" s="5">
         <f>ROUND(Q5/T5,2)</f>
-        <v>-1.8</v>
+        <v>-4.42</v>
       </c>
       <c r="W5" s="5">
         <f>ROUND(ABS(R5/T5),2)</f>
-        <v>0.54</v>
+        <v>2.21</v>
       </c>
       <c r="X5" s="6">
         <v>0.1686</v>
@@ -1155,11 +1158,11 @@
       </c>
       <c r="Q6">
         <f>ROUND(O6*10000000/'absorption coefficient'!$B$2,2)</f>
-        <v>1.05</v>
+        <v>2.58</v>
       </c>
       <c r="R6">
         <f>ROUND(ABS(Q6)*SQRT(SUMSQ(P6/O6,'absorption coefficient'!$B$3/'absorption coefficient'!$B$2)),3)</f>
-        <v>0.314</v>
+        <v>1.29</v>
       </c>
       <c r="S6">
         <v>50</v>
@@ -1172,11 +1175,11 @@
       </c>
       <c r="V6" s="5">
         <f t="shared" ref="V6" si="25">ROUND(Q6/T6,2)</f>
-        <v>1.05</v>
+        <v>2.58</v>
       </c>
       <c r="W6" s="5">
         <f t="shared" ref="W6" si="26">ROUND(ABS(R6/T6),2)</f>
-        <v>0.31</v>
+        <v>1.29</v>
       </c>
       <c r="X6">
         <v>6.6199999999999995E-2</v>
@@ -1253,11 +1256,11 @@
       </c>
       <c r="Q7">
         <f>ROUND(O7*10000000/'absorption coefficient'!$B$2,2)</f>
-        <v>3.02</v>
+        <v>7.42</v>
       </c>
       <c r="R7">
         <f>ROUND(ABS(Q7)*SQRT(SUMSQ(P7/O7,'absorption coefficient'!$B$3/'absorption coefficient'!$B$2)),3)</f>
-        <v>0.90400000000000003</v>
+        <v>3.71</v>
       </c>
       <c r="S7">
         <v>50</v>
@@ -1267,6 +1270,128 @@
       </c>
       <c r="U7" s="5" t="s">
         <v>40</v>
+      </c>
+      <c r="V7" s="5">
+        <f t="shared" ref="V7:V8" si="35">ROUND(Q7/T7,2)</f>
+        <v>7.42</v>
+      </c>
+      <c r="W7" s="5">
+        <f t="shared" ref="W7:W8" si="36">ROUND(ABS(R7/T7),2)</f>
+        <v>3.71</v>
+      </c>
+      <c r="X7">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="Y7">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>0.1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>585</v>
+      </c>
+      <c r="C8">
+        <v>0.35783799999999999</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.0257E-6</v>
+      </c>
+      <c r="E8">
+        <v>0.32146599999999997</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.3987000000000001E-6</v>
+      </c>
+      <c r="G8">
+        <v>2.72E-4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3.6792000000000003E-8</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8" si="37">E8-G8</f>
+        <v>0.32119399999999998</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8" si="38">SQRT(SUMSQ(F8,H8))</f>
+        <v>1.3991838125364372E-6</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8" si="39">C8-G8</f>
+        <v>0.35756599999999999</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8" si="40">SQRT(SUMSQ(D8,H8))</f>
+        <v>1.0263596549280373E-6</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8" si="41">I8/K8</f>
+        <v>0.89827891913660696</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8" si="42">1-M8</f>
+        <v>0.10172108086339304</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ref="O8" si="43">-LOG(M8)</f>
+        <v>4.658879224824581E-2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ref="P8" si="44">SQRT(SUMSQ(J8/I8,L8/K8))</f>
+        <v>5.2168639655448171E-6</v>
+      </c>
+      <c r="Q8">
+        <f>ROUND(O8*10000000/'absorption coefficient'!$B$2,2)</f>
+        <v>23.29</v>
+      </c>
+      <c r="R8">
+        <f>ROUND(ABS(Q8)*SQRT(SUMSQ(P8/O8,'absorption coefficient'!$B$3/'absorption coefficient'!$B$2)),3)</f>
+        <v>11.645</v>
+      </c>
+      <c r="S8">
+        <f>ROUND(SUM(50*1,50*1, 60*1, 70*0.75,80*0.6,90*0.5,100*0.5,40*1,60*1,70*1,10*2,20*2,30*2,80*0.6)/14.95,0)</f>
+        <v>46</v>
+      </c>
+      <c r="T8">
+        <v>14.95</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V8" s="5">
+        <f t="shared" si="35"/>
+        <v>1.56</v>
+      </c>
+      <c r="W8" s="5">
+        <f t="shared" si="36"/>
+        <v>0.78</v>
+      </c>
+      <c r="X8">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="Y8">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>0.1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1280,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68540495-4E0A-4656-A52E-79B9CFEA2C71}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,7 +1427,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3">
-        <v>49100</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1310,8 +1435,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="3">
-        <v>14700</v>
-      </c>
+        <f>B2*0.5</f>
+        <v>10000</v>
+      </c>
+      <c r="C3" s="3"/>
       <c r="E3">
         <v>1</v>
       </c>
@@ -1412,9 +1539,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1550,26 +1680,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CF177DC-A263-4BA6-BD50-9A09D922A15B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BB8135A-3467-434D-A79E-E12735EE4FB1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="78187c3c-08d0-445e-b166-244fd45ce62e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1593,9 +1712,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BB8135A-3467-434D-A79E-E12735EE4FB1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CF177DC-A263-4BA6-BD50-9A09D922A15B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="78187c3c-08d0-445e-b166-244fd45ce62e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>